--- a/src/main/resources/157-black-shop/bs-wechat-service_structure.xlsx
+++ b/src/main/resources/157-black-shop/bs-wechat-service_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="144">
   <si>
     <t>类名</t>
   </si>
@@ -106,7 +106,7 @@
     <t>private</t>
   </si>
   <si>
-    <t>handle(me.chanjar.weixin.mp.bean.message.WxMpXmlMessage)</t>
+    <t>handle(me.chanjar.weixin.mp.bean.message.WxMpXmlMessage,java.util.Map,me.chanjar.weixin.mp.api.WxMpService,me.chanjar.weixin.common.session.WxSessionManager)</t>
   </si>
   <si>
     <t>me.chanjar.weixin.mp.bean.message.WxMpXmlOutMessage</t>
@@ -208,7 +208,7 @@
     <t>me.chanjar.weixin.mp.api.WxMpMessageRouter</t>
   </si>
   <si>
-    <t>lambda$services$3(me.chanjar.weixin.mp.api.WxMpService)</t>
+    <t>lambda$services$3(me.chanjar.weixin.mp.api.WxMpService,me.chanjar.weixin.mp.api.WxMpService)</t>
   </si>
   <si>
     <t>cn.blackshop.wechat.mp.config.WxMpProperties</t>
@@ -232,7 +232,7 @@
     <t>cn.blackshop.wechat.mp.builder.TextBuilder</t>
   </si>
   <si>
-    <t>build(me.chanjar.weixin.mp.bean.message.WxMpXmlMessage)</t>
+    <t>build(java.lang.String,me.chanjar.weixin.mp.bean.message.WxMpXmlMessage,me.chanjar.weixin.mp.api.WxMpService)</t>
   </si>
   <si>
     <t>cn.blackshop.wechat.mp.builder.AbstractBuilder</t>
@@ -385,7 +385,7 @@
     <t>menuDelete(java.lang.String)</t>
   </si>
   <si>
-    <t>menuCreate(me.chanjar.weixin.common.bean.menu.WxMenu)</t>
+    <t>menuCreate(java.lang.String,me.chanjar.weixin.common.bean.menu.WxMenu)</t>
   </si>
   <si>
     <t>getSelfMenuInfo(java.lang.String)</t>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>权重</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>1</t>
@@ -4872,7 +4875,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4903,10 +4906,10 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>135</v>
@@ -4914,67 +4917,67 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>136</v>
@@ -4982,16 +4985,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>136</v>
@@ -5008,7 +5011,7 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>136</v>
@@ -5025,10 +5028,10 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -5036,16 +5039,16 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -5053,16 +5056,16 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -5070,16 +5073,16 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
@@ -5093,10 +5096,10 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
@@ -5104,16 +5107,16 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -5121,16 +5124,16 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -5138,16 +5141,16 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -5161,41 +5164,41 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>136</v>
@@ -5203,19 +5206,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21">
@@ -5223,16 +5226,16 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22">
@@ -5246,10 +5249,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
@@ -5260,44 +5263,44 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>136</v>
@@ -5305,19 +5308,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -5325,16 +5328,67 @@
         <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="E27" t="s">
-        <v>135</v>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5352,10 +5406,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -5381,7 +5435,7 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -5398,7 +5452,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -5415,7 +5469,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -5432,7 +5486,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -5449,7 +5503,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -5466,7 +5520,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
@@ -5483,7 +5537,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -5500,7 +5554,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -5517,7 +5571,7 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
@@ -5534,7 +5588,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -5551,7 +5605,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5575,10 +5629,10 @@
         <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
         <v>134</v>
@@ -5599,16 +5653,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
         <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
       </c>
       <c r="E1" t="s">
         <v>134</v>
@@ -5638,7 +5692,7 @@
         <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>134</v>
@@ -5659,16 +5713,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>134</v>
